--- a/biology/Zoologie/Eurytides_bellerophon/Eurytides_bellerophon.xlsx
+++ b/biology/Zoologie/Eurytides_bellerophon/Eurytides_bellerophon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurytides bellerophon est une espèce de papillons de la famille des Papilionidae, de la sous-famille des Papilioninae et du genre Eurytides.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Eurytides bellerophon a été décrite par Johan Wilhelm Dalman en 1823 sous le protonyme de Papilio bellerophon.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurytides bellerophon est un grand papillon au corps jaune rayé de marron, aux ailes de couleur blanche à l'apex un peu pointu avec deux longues fines queues aux postérieures. Les ailes antérieures ont la marge marron, deux lignes marron partant du bord costal et dessinant un « Y » allant à l'angle interne et une troisième très courte. Les postérieures présentent dans la bordure marron des marques bleues et une tache anale rouge.
 </t>
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plante hôte
-La plante hôte de sa chenille est Guatteria nigrescens[2].
+          <t>Plante hôte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Guatteria nigrescens.
 </t>
         </is>
       </c>
@@ -605,12 +626,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se rencontre au Brésil, en Bolivie et dans le Nord de l'Argentine[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se rencontre au Brésil, en Bolivie et dans le Nord de l'Argentine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eurytides_bellerophon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eurytides_bellerophon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
